--- a/biology/Écologie/Sky_island/Sky_island.xlsx
+++ b/biology/Écologie/Sky_island/Sky_island.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un sky island est un massif de montagnes dont les conditions d'isolation topographique se répercutent au niveau des écosystèmes.  C'est une expression anglaise signifiant littéralement en français « île du ciel ». Les espèces végétales et animales présentes sur un sky island peuvent alors faire l'objet d'une spéciation contrairement aux mêmes espèces vivant dans d'autres milieux non isolés topographiquement. Les espèces vivant dans un sky island ont alors plus de probabilité d'être endémiques.
 L'expression « sky island » est née de l'opposition avec les îles classiques telles que les îles Galápagos dont les espèces ont développé une spéciation entre l'archipel et les autres terres mais aussi entre les îles de l'archipel.
@@ -513,7 +525,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « Sky island » (voir la liste des auteurs).</t>
         </is>
